--- a/Code/Results/Cases/Case_1_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.247713142189875</v>
+        <v>7.781484444871653</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.025339838714437</v>
+        <v>8.994834548131863</v>
       </c>
       <c r="E2">
-        <v>7.002274139362659</v>
+        <v>13.03036528579197</v>
       </c>
       <c r="F2">
-        <v>28.26385808920434</v>
+        <v>32.43215308875988</v>
       </c>
       <c r="G2">
-        <v>2.037867895782095</v>
+        <v>3.629463912638744</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.19004403005866</v>
+        <v>9.683785215320425</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>24.98765278179068</v>
+        <v>20.46657744912371</v>
       </c>
       <c r="N2">
-        <v>15.98169270710707</v>
+        <v>17.86441640311219</v>
       </c>
       <c r="O2">
-        <v>21.32808335818174</v>
+        <v>24.53295025528709</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.893083506875657</v>
+        <v>7.707759290682338</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.072939844871695</v>
+        <v>9.020965173569156</v>
       </c>
       <c r="E3">
-        <v>7.154121841189169</v>
+        <v>13.09312267452674</v>
       </c>
       <c r="F3">
-        <v>26.91287883237237</v>
+        <v>32.28043253589874</v>
       </c>
       <c r="G3">
-        <v>2.045825860989341</v>
+        <v>3.632480853757775</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.297466447984463</v>
+        <v>9.723651660560115</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.34096423241768</v>
+        <v>19.93841419806747</v>
       </c>
       <c r="N3">
-        <v>15.63631069092014</v>
+        <v>17.79118311800559</v>
       </c>
       <c r="O3">
-        <v>20.3082165874693</v>
+        <v>24.41363490575228</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.66859138439256</v>
+        <v>7.663923939527042</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.10417425107788</v>
+        <v>9.037980542963863</v>
       </c>
       <c r="E4">
-        <v>7.251338704434605</v>
+        <v>13.13371433053429</v>
       </c>
       <c r="F4">
-        <v>26.07804975428292</v>
+        <v>32.19685971458989</v>
       </c>
       <c r="G4">
-        <v>2.050848436602166</v>
+        <v>3.634431784606534</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.365468544771966</v>
+        <v>9.749369017003557</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>22.27013796024825</v>
+        <v>19.60812315943738</v>
       </c>
       <c r="N4">
-        <v>15.42464382157352</v>
+        <v>17.74853499733086</v>
       </c>
       <c r="O4">
-        <v>19.67714047804709</v>
+        <v>24.34729758947682</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.575543688812953</v>
+        <v>7.646441234542565</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.117396221550014</v>
+        <v>9.04515904333485</v>
       </c>
       <c r="E5">
-        <v>7.291939621508177</v>
+        <v>13.15077431958728</v>
       </c>
       <c r="F5">
-        <v>25.73694100971007</v>
+        <v>32.16523803357006</v>
       </c>
       <c r="G5">
-        <v>2.052930861572536</v>
+        <v>3.635251664443437</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.393698167609283</v>
+        <v>9.760161453040576</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.81866927775615</v>
+        <v>19.47219856090954</v>
       </c>
       <c r="N5">
-        <v>15.33859685294972</v>
+        <v>17.73175216593198</v>
       </c>
       <c r="O5">
-        <v>19.41906440403669</v>
+        <v>24.32202543387413</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560002893461293</v>
+        <v>7.643561812598325</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.119621229153401</v>
+        <v>9.046365813429153</v>
       </c>
       <c r="E6">
-        <v>7.298740376722105</v>
+        <v>13.15363846617399</v>
       </c>
       <c r="F6">
-        <v>25.68025910269977</v>
+        <v>32.16013499187181</v>
       </c>
       <c r="G6">
-        <v>2.053278841172138</v>
+        <v>3.635389308881889</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.398417102064855</v>
+        <v>9.761972420806355</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.7427893939651</v>
+        <v>19.44955360869221</v>
       </c>
       <c r="N6">
-        <v>15.32432467888935</v>
+        <v>17.72900181889754</v>
       </c>
       <c r="O6">
-        <v>19.376166557786</v>
+        <v>24.31793589263802</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.667342659797518</v>
+        <v>7.663686594319385</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.10435058229615</v>
+        <v>9.038076363792198</v>
       </c>
       <c r="E7">
-        <v>7.251882297728632</v>
+        <v>13.13394230659842</v>
       </c>
       <c r="F7">
-        <v>26.07345250690307</v>
+        <v>32.19642336475315</v>
       </c>
       <c r="G7">
-        <v>2.050876374640645</v>
+        <v>3.634442741022303</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.365847155328073</v>
+        <v>9.749513301603823</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>22.26411051835762</v>
+        <v>19.6062951662267</v>
       </c>
       <c r="N7">
-        <v>15.42348236992042</v>
+        <v>17.7483062245642</v>
       </c>
       <c r="O7">
-        <v>19.67366318989758</v>
+        <v>24.34694960647707</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.126910144860377</v>
+        <v>7.755779213740088</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.041328563577522</v>
+        <v>9.003643096084458</v>
       </c>
       <c r="E8">
-        <v>7.053793673570246</v>
+        <v>13.05157740197411</v>
       </c>
       <c r="F8">
-        <v>27.79938128437648</v>
+        <v>32.37786674584754</v>
       </c>
       <c r="G8">
-        <v>2.040584371704271</v>
+        <v>3.630483759113902</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.226661388481279</v>
+        <v>9.697274451983388</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>24.43222946557244</v>
+        <v>20.28581585241087</v>
       </c>
       <c r="N8">
-        <v>15.86258625781859</v>
+        <v>17.83869308761492</v>
       </c>
       <c r="O8">
-        <v>20.97761941870063</v>
+        <v>24.49038637024339</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.969781401234391</v>
+        <v>7.946809038784773</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.934230195281963</v>
+        <v>8.943805448393343</v>
       </c>
       <c r="E9">
-        <v>6.697867792575764</v>
+        <v>12.90634774754657</v>
       </c>
       <c r="F9">
-        <v>31.12651567599594</v>
+        <v>32.80844874168471</v>
       </c>
       <c r="G9">
-        <v>2.021415564297111</v>
+        <v>3.623497939759467</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.96977054710587</v>
+        <v>9.604629873174368</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>28.21355889701123</v>
+        <v>21.56343011216754</v>
       </c>
       <c r="N9">
-        <v>16.72226431171175</v>
+        <v>18.03369547089514</v>
       </c>
       <c r="O9">
-        <v>23.48482836020703</v>
+        <v>24.82558393141726</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.579094409408103</v>
+        <v>8.092246164162297</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.866458777293497</v>
+        <v>8.904501688817589</v>
       </c>
       <c r="E10">
-        <v>6.457801418999574</v>
+        <v>12.80951405906424</v>
       </c>
       <c r="F10">
-        <v>33.52101784349046</v>
+        <v>33.16842505960729</v>
       </c>
       <c r="G10">
-        <v>2.007847011624758</v>
+        <v>3.618834059199366</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.790630036299066</v>
+        <v>9.542483458080284</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30.7108247922184</v>
+        <v>22.45957790523367</v>
       </c>
       <c r="N10">
-        <v>17.34725564855347</v>
+        <v>18.18690673454109</v>
       </c>
       <c r="O10">
-        <v>25.28559132974962</v>
+        <v>25.10319202247406</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.883272506067453</v>
+        <v>8.159237429276244</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.838218053809777</v>
+        <v>8.88762748556265</v>
       </c>
       <c r="E11">
-        <v>6.353710048459893</v>
+        <v>12.76759122020191</v>
       </c>
       <c r="F11">
-        <v>34.59784113518813</v>
+        <v>33.34117341947903</v>
       </c>
       <c r="G11">
-        <v>2.001760661724936</v>
+        <v>3.616812914347657</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.711198431643933</v>
+        <v>9.515485763707495</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>31.78734981415532</v>
+        <v>22.85634917210396</v>
       </c>
       <c r="N11">
-        <v>17.62904443807027</v>
+        <v>18.25856875489477</v>
       </c>
       <c r="O11">
-        <v>26.09467295197139</v>
+        <v>25.23591115472478</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.995973456394639</v>
+        <v>8.184701560118098</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.827917436013945</v>
+        <v>8.881381820431553</v>
       </c>
       <c r="E12">
-        <v>6.315078594940518</v>
+        <v>12.75202111631603</v>
       </c>
       <c r="F12">
-        <v>35.00377245708451</v>
+        <v>33.40783629554103</v>
       </c>
       <c r="G12">
-        <v>1.999465949025282</v>
+        <v>3.616061917952958</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.681416718726523</v>
+        <v>9.505444687800093</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>32.18657613270913</v>
+        <v>23.00490572930469</v>
       </c>
       <c r="N12">
-        <v>17.73530489168629</v>
+        <v>18.28597070760701</v>
       </c>
       <c r="O12">
-        <v>26.39957291683773</v>
+        <v>25.28705862299429</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.971811431242875</v>
+        <v>8.179213507700805</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.83011799098263</v>
+        <v>8.882720526664707</v>
       </c>
       <c r="E13">
-        <v>6.323362727905193</v>
+        <v>12.75536085593248</v>
       </c>
       <c r="F13">
-        <v>34.9164296517888</v>
+        <v>33.39342456689306</v>
       </c>
       <c r="G13">
-        <v>1.99995974866903</v>
+        <v>3.616223020762812</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.687817482975673</v>
+        <v>9.507599113364806</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>32.10096843976653</v>
+        <v>22.97298856020934</v>
       </c>
       <c r="N13">
-        <v>17.71244093626652</v>
+        <v>18.28005769871777</v>
       </c>
       <c r="O13">
-        <v>26.3339730607274</v>
+        <v>25.27600412074786</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.892594146350213</v>
+        <v>8.161330589072451</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.837362598277899</v>
+        <v>8.887110762210533</v>
       </c>
       <c r="E14">
-        <v>6.350515748979928</v>
+        <v>12.76630414654986</v>
       </c>
       <c r="F14">
-        <v>34.63127421441364</v>
+        <v>33.34663310156601</v>
       </c>
       <c r="G14">
-        <v>2.001571686912464</v>
+        <v>3.616750841943373</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.708742300757531</v>
+        <v>9.514656027423282</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>31.82036260676291</v>
+        <v>22.86860560352266</v>
       </c>
       <c r="N14">
-        <v>17.63779596060481</v>
+        <v>18.26081791851106</v>
       </c>
       <c r="O14">
-        <v>26.11978693252942</v>
+        <v>25.24010146887921</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.843748373441281</v>
+        <v>8.150388590166937</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.841852051653638</v>
+        <v>8.889818681580229</v>
       </c>
       <c r="E15">
-        <v>6.367251723126814</v>
+        <v>12.77304694812049</v>
       </c>
       <c r="F15">
-        <v>34.45636865971288</v>
+        <v>33.31813292779817</v>
       </c>
       <c r="G15">
-        <v>2.002560282403687</v>
+        <v>3.617076016299302</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.721598138287395</v>
+        <v>9.519002319928024</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>31.64738944081815</v>
+        <v>22.80444411899551</v>
       </c>
       <c r="N15">
-        <v>17.59201319445421</v>
+        <v>18.2490669960556</v>
       </c>
       <c r="O15">
-        <v>25.98839880694474</v>
+        <v>25.2182248243805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.558866710350642</v>
+        <v>8.087882838751103</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.868358231443058</v>
+        <v>8.905624658178235</v>
       </c>
       <c r="E16">
-        <v>6.464711048136997</v>
+        <v>12.81229655820636</v>
       </c>
       <c r="F16">
-        <v>33.45038867046744</v>
+        <v>33.15731261190308</v>
       </c>
       <c r="G16">
-        <v>2.008246307555121</v>
+        <v>3.618968160679084</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.795862583971396</v>
+        <v>9.544273377806372</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>30.63928460692204</v>
+        <v>22.43341778599028</v>
       </c>
       <c r="N16">
-        <v>17.32878197122507</v>
+        <v>18.18226151173332</v>
       </c>
       <c r="O16">
-        <v>25.23250901883648</v>
+        <v>25.09464498359441</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.383480932607975</v>
+        <v>8.049733695389826</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.885296353511255</v>
+        <v>8.915578352038258</v>
       </c>
       <c r="E17">
-        <v>6.525842259326255</v>
+        <v>12.83691924135268</v>
       </c>
       <c r="F17">
-        <v>32.83000737141344</v>
+        <v>33.06092582128262</v>
       </c>
       <c r="G17">
-        <v>2.011754961776341</v>
+        <v>3.620154606745882</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.841949282151217</v>
+        <v>9.560101907783672</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>30.00569260703622</v>
+        <v>22.20292245570065</v>
       </c>
       <c r="N17">
-        <v>17.16658988237713</v>
+        <v>18.14176954127647</v>
       </c>
       <c r="O17">
-        <v>24.76617125834847</v>
+        <v>25.02045592167496</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.297436440383365</v>
+        <v>8.027870957161024</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.895280976647137</v>
+        <v>8.92139809378069</v>
       </c>
       <c r="E18">
-        <v>6.561481352860069</v>
+        <v>12.85128183081259</v>
       </c>
       <c r="F18">
-        <v>32.47200718232142</v>
+        <v>33.00633614456663</v>
       </c>
       <c r="G18">
-        <v>2.013781298292324</v>
+        <v>3.620846481420698</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.868650896944867</v>
+        <v>9.569325923302925</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>29.63565931790354</v>
+        <v>22.06932933876651</v>
       </c>
       <c r="N18">
-        <v>17.07306839596006</v>
+        <v>18.11866569897416</v>
       </c>
       <c r="O18">
-        <v>24.49699437503294</v>
+        <v>24.97839217462604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.268149591306134</v>
+        <v>8.02048300675448</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.898702598565229</v>
+        <v>8.923384823005231</v>
       </c>
       <c r="E19">
-        <v>6.57362886526482</v>
+        <v>12.85617917677946</v>
       </c>
       <c r="F19">
-        <v>32.35059559699397</v>
+        <v>32.988000281829</v>
       </c>
       <c r="G19">
-        <v>2.014468865142503</v>
+        <v>3.621082365936921</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.877724882216495</v>
+        <v>9.572469624465739</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>29.50940560846896</v>
+        <v>22.02392613724794</v>
       </c>
       <c r="N19">
-        <v>17.04136630806883</v>
+        <v>18.11087562111241</v>
       </c>
       <c r="O19">
-        <v>24.40569403950668</v>
+        <v>24.9642555615469</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.399332426338695</v>
+        <v>8.053786665256872</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.883468041847644</v>
+        <v>8.914508971826377</v>
       </c>
       <c r="E20">
-        <v>6.519284929500849</v>
+        <v>12.83427739262034</v>
       </c>
       <c r="F20">
-        <v>32.89617002545697</v>
+        <v>33.07109877202829</v>
       </c>
       <c r="G20">
-        <v>2.011380621617556</v>
+        <v>3.620027328819245</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.837023218904064</v>
+        <v>9.558404533397177</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>30.07371908632873</v>
+        <v>22.22756541615401</v>
       </c>
       <c r="N20">
-        <v>17.18388024185098</v>
+        <v>18.14606084930414</v>
       </c>
       <c r="O20">
-        <v>24.81591259844637</v>
+        <v>25.02829081668965</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.915929433796265</v>
+        <v>8.166580817353216</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.835223819506606</v>
+        <v>8.885817331839615</v>
       </c>
       <c r="E21">
-        <v>6.342518479543243</v>
+        <v>12.76308156047631</v>
       </c>
       <c r="F21">
-        <v>34.7150812004576</v>
+        <v>33.36034343387343</v>
       </c>
       <c r="G21">
-        <v>2.00109796830805</v>
+        <v>3.616595418789633</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.702588087667197</v>
+        <v>9.51257829684922</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>31.90301109037381</v>
+        <v>22.89931227982074</v>
       </c>
       <c r="N21">
-        <v>17.65973376046815</v>
+        <v>18.26646205478932</v>
       </c>
       <c r="O21">
-        <v>26.18273877683798</v>
+        <v>25.2506230968352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.239367047262361</v>
+        <v>8.240847049667297</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.805998924693319</v>
+        <v>8.867906219286539</v>
       </c>
       <c r="E22">
-        <v>6.231601286250058</v>
+        <v>12.71832938113725</v>
       </c>
       <c r="F22">
-        <v>35.89315799949075</v>
+        <v>33.55662562667731</v>
       </c>
       <c r="G22">
-        <v>1.994435022205463</v>
+        <v>3.614436173422911</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.616461890753277</v>
+        <v>9.483690850014341</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>33.04948658395855</v>
+        <v>23.32842420788545</v>
       </c>
       <c r="N22">
-        <v>17.96809318418627</v>
+        <v>18.34668807776555</v>
       </c>
       <c r="O22">
-        <v>27.14746658799384</v>
+        <v>25.4010976784792</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.068058867666648</v>
+        <v>8.201167284723942</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.821378167025559</v>
+        <v>8.877388914640278</v>
       </c>
       <c r="E23">
-        <v>6.290359009236878</v>
+        <v>12.74205197369525</v>
       </c>
       <c r="F23">
-        <v>35.26537155364312</v>
+        <v>33.4512192982494</v>
       </c>
       <c r="G23">
-        <v>1.997986742277577</v>
+        <v>3.615580970917289</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.662269443762106</v>
+        <v>9.499011618452878</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>32.44203706129404</v>
+        <v>23.10034491052511</v>
       </c>
       <c r="N23">
-        <v>17.80378324461103</v>
+        <v>18.30373518271591</v>
       </c>
       <c r="O23">
-        <v>26.5960360174203</v>
+        <v>25.32032594763097</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.39216890022297</v>
+        <v>8.051954098651519</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.884293854800896</v>
+        <v>8.91499213574275</v>
       </c>
       <c r="E24">
-        <v>6.52224796344028</v>
+        <v>12.83547112859143</v>
       </c>
       <c r="F24">
-        <v>32.86626204236333</v>
+        <v>33.06649700964625</v>
       </c>
       <c r="G24">
-        <v>2.011549832085894</v>
+        <v>3.620084840727941</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.839249651259375</v>
+        <v>9.559171530109516</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>30.04298230535256</v>
+        <v>22.21642768262278</v>
       </c>
       <c r="N24">
-        <v>17.17606412072905</v>
+        <v>18.1441202008676</v>
       </c>
       <c r="O24">
-        <v>24.7934278780876</v>
+        <v>25.0247468247318</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.748606146748922</v>
+        <v>7.894143449742988</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.96135481474275</v>
+        <v>8.95917306400753</v>
       </c>
       <c r="E25">
-        <v>6.790527096836088</v>
+        <v>12.9438990912984</v>
       </c>
       <c r="F25">
-        <v>30.23440382363094</v>
+        <v>32.68414801350109</v>
       </c>
       <c r="G25">
-        <v>2.026502834592085</v>
+        <v>3.625305100456666</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.037570432544817</v>
+        <v>9.628649418443038</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>27.24039071227076</v>
+        <v>21.22465932447412</v>
       </c>
       <c r="N25">
-        <v>16.49046499289162</v>
+        <v>17.97913044024589</v>
       </c>
       <c r="O25">
-        <v>22.81323229742938</v>
+        <v>24.72927997271959</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_65/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_65/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.781484444871653</v>
+        <v>7.247713142189843</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.994834548131863</v>
+        <v>5.02533983871425</v>
       </c>
       <c r="E2">
-        <v>13.03036528579197</v>
+        <v>7.002274139362659</v>
       </c>
       <c r="F2">
-        <v>32.43215308875988</v>
+        <v>28.26385808920429</v>
       </c>
       <c r="G2">
-        <v>3.629463912638744</v>
+        <v>2.037867895782094</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.683785215320425</v>
+        <v>5.190044030058828</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>20.46657744912371</v>
+        <v>24.9876527817907</v>
       </c>
       <c r="N2">
-        <v>17.86441640311219</v>
+        <v>15.98169270710707</v>
       </c>
       <c r="O2">
-        <v>24.53295025528709</v>
+        <v>21.32808335818172</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.707759290682338</v>
+        <v>6.893083506875687</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.020965173569156</v>
+        <v>5.072939844871694</v>
       </c>
       <c r="E3">
-        <v>13.09312267452674</v>
+        <v>7.154121841189232</v>
       </c>
       <c r="F3">
-        <v>32.28043253589874</v>
+        <v>26.91287883237239</v>
       </c>
       <c r="G3">
-        <v>3.632480853757775</v>
+        <v>2.045825860989472</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.723651660560115</v>
+        <v>5.297466447984529</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.93841419806747</v>
+        <v>23.34096423241767</v>
       </c>
       <c r="N3">
-        <v>17.79118311800559</v>
+        <v>15.63631069092016</v>
       </c>
       <c r="O3">
-        <v>24.41363490575228</v>
+        <v>20.3082165874693</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.663923939527042</v>
+        <v>6.66859138439256</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.037980542963863</v>
+        <v>5.10417425107775</v>
       </c>
       <c r="E4">
-        <v>13.13371433053429</v>
+        <v>7.251338704434601</v>
       </c>
       <c r="F4">
-        <v>32.19685971458989</v>
+        <v>26.0780497542829</v>
       </c>
       <c r="G4">
-        <v>3.634431784606534</v>
+        <v>2.050848436602167</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.749369017003557</v>
+        <v>5.365468544772029</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.60812315943738</v>
+        <v>22.27013796024827</v>
       </c>
       <c r="N4">
-        <v>17.74853499733086</v>
+        <v>15.42464382157357</v>
       </c>
       <c r="O4">
-        <v>24.34729758947682</v>
+        <v>19.67714047804709</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.646441234542565</v>
+        <v>6.575543688812948</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.04515904333485</v>
+        <v>5.117396221549814</v>
       </c>
       <c r="E5">
-        <v>13.15077431958728</v>
+        <v>7.291939621508043</v>
       </c>
       <c r="F5">
-        <v>32.16523803357006</v>
+        <v>25.73694100971004</v>
       </c>
       <c r="G5">
-        <v>3.635251664443437</v>
+        <v>2.052930861572533</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.760161453040576</v>
+        <v>5.393698167609281</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.47219856090954</v>
+        <v>21.81866927775617</v>
       </c>
       <c r="N5">
-        <v>17.73175216593198</v>
+        <v>15.33859685294972</v>
       </c>
       <c r="O5">
-        <v>24.32202543387413</v>
+        <v>19.41906440403668</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.643561812598325</v>
+        <v>6.560002893461411</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.046365813429153</v>
+        <v>5.119621229153403</v>
       </c>
       <c r="E6">
-        <v>13.15363846617399</v>
+        <v>7.298740376722171</v>
       </c>
       <c r="F6">
-        <v>32.16013499187181</v>
+        <v>25.68025910269976</v>
       </c>
       <c r="G6">
-        <v>3.635389308881889</v>
+        <v>2.053278841172138</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.761972420806355</v>
+        <v>5.398417102064889</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.44955360869221</v>
+        <v>21.74278939396507</v>
       </c>
       <c r="N6">
-        <v>17.72900181889754</v>
+        <v>15.3243246788893</v>
       </c>
       <c r="O6">
-        <v>24.31793589263802</v>
+        <v>19.37616655778603</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.663686594319385</v>
+        <v>6.667342659797558</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.038076363792198</v>
+        <v>5.104350582296084</v>
       </c>
       <c r="E7">
-        <v>13.13394230659842</v>
+        <v>7.251882297728566</v>
       </c>
       <c r="F7">
-        <v>32.19642336475315</v>
+        <v>26.07345250690313</v>
       </c>
       <c r="G7">
-        <v>3.634442741022303</v>
+        <v>2.050876374640377</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.749513301603823</v>
+        <v>5.365847155328074</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.6062951662267</v>
+        <v>22.26411051835754</v>
       </c>
       <c r="N7">
-        <v>17.7483062245642</v>
+        <v>15.42348236992038</v>
       </c>
       <c r="O7">
-        <v>24.34694960647707</v>
+        <v>19.67366318989766</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.755779213740088</v>
+        <v>7.126910144860432</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.003643096084458</v>
+        <v>5.041328563577456</v>
       </c>
       <c r="E8">
-        <v>13.05157740197411</v>
+        <v>7.053793673570118</v>
       </c>
       <c r="F8">
-        <v>32.37786674584754</v>
+        <v>27.79938128437646</v>
       </c>
       <c r="G8">
-        <v>3.630483759113902</v>
+        <v>2.040584371704272</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.697274451983388</v>
+        <v>5.226661388481246</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.28581585241087</v>
+        <v>24.43222946557245</v>
       </c>
       <c r="N8">
-        <v>17.83869308761492</v>
+        <v>15.86258625781861</v>
       </c>
       <c r="O8">
-        <v>24.49038637024339</v>
+        <v>20.97761941870063</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.946809038784773</v>
+        <v>7.969781401234408</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.943805448393343</v>
+        <v>4.934230195281831</v>
       </c>
       <c r="E9">
-        <v>12.90634774754657</v>
+        <v>6.6978677925757</v>
       </c>
       <c r="F9">
-        <v>32.80844874168471</v>
+        <v>31.12651567599589</v>
       </c>
       <c r="G9">
-        <v>3.623497939759467</v>
+        <v>2.021415564297244</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.604629873174368</v>
+        <v>4.969770547105901</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.56343011216754</v>
+        <v>28.21355889701122</v>
       </c>
       <c r="N9">
-        <v>18.03369547089514</v>
+        <v>16.72226431171175</v>
       </c>
       <c r="O9">
-        <v>24.82558393141726</v>
+        <v>23.48482836020701</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.092246164162297</v>
+        <v>8.579094409408135</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.904501688817589</v>
+        <v>4.866458777293616</v>
       </c>
       <c r="E10">
-        <v>12.80951405906424</v>
+        <v>6.457801418999513</v>
       </c>
       <c r="F10">
-        <v>33.16842505960729</v>
+        <v>33.52101784349045</v>
       </c>
       <c r="G10">
-        <v>3.618834059199366</v>
+        <v>2.007847011624758</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.542483458080284</v>
+        <v>4.790630036299067</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.45957790523367</v>
+        <v>30.71082479221839</v>
       </c>
       <c r="N10">
-        <v>18.18690673454109</v>
+        <v>17.34725564855345</v>
       </c>
       <c r="O10">
-        <v>25.10319202247406</v>
+        <v>25.28559132974963</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.159237429276244</v>
+        <v>8.883272506067497</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.88762748556265</v>
+        <v>4.83821805380985</v>
       </c>
       <c r="E11">
-        <v>12.76759122020191</v>
+        <v>6.353710048459897</v>
       </c>
       <c r="F11">
-        <v>33.34117341947903</v>
+        <v>34.59784113518814</v>
       </c>
       <c r="G11">
-        <v>3.616812914347657</v>
+        <v>2.001760661724669</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.515485763707495</v>
+        <v>4.711198431643865</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.85634917210396</v>
+        <v>31.78734981415533</v>
       </c>
       <c r="N11">
-        <v>18.25856875489477</v>
+        <v>17.62904443807026</v>
       </c>
       <c r="O11">
-        <v>25.23591115472478</v>
+        <v>26.09467295197138</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.184701560118098</v>
+        <v>8.99597345639466</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>8.881381820431553</v>
+        <v>4.827917436014008</v>
       </c>
       <c r="E12">
-        <v>12.75202111631603</v>
+        <v>6.315078594940579</v>
       </c>
       <c r="F12">
-        <v>33.40783629554103</v>
+        <v>35.00377245708451</v>
       </c>
       <c r="G12">
-        <v>3.616061917952958</v>
+        <v>1.99946594902528</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.505444687800093</v>
+        <v>4.681416718726525</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.00490572930469</v>
+        <v>32.18657613270917</v>
       </c>
       <c r="N12">
-        <v>18.28597070760701</v>
+        <v>17.73530489168634</v>
       </c>
       <c r="O12">
-        <v>25.28705862299429</v>
+        <v>26.39957291683772</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.179213507700805</v>
+        <v>8.971811431242907</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>8.882720526664707</v>
+        <v>4.83011799098256</v>
       </c>
       <c r="E13">
-        <v>12.75536085593248</v>
+        <v>6.323362727905185</v>
       </c>
       <c r="F13">
-        <v>33.39342456689306</v>
+        <v>34.91642965178877</v>
       </c>
       <c r="G13">
-        <v>3.616223020762812</v>
+        <v>1.999959748669294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.507599113364806</v>
+        <v>4.68781748297577</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.97298856020934</v>
+        <v>32.10096843976651</v>
       </c>
       <c r="N13">
-        <v>18.28005769871777</v>
+        <v>17.71244093626656</v>
       </c>
       <c r="O13">
-        <v>25.27600412074786</v>
+        <v>26.33397306072738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.161330589072451</v>
+        <v>8.892594146350213</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>8.887110762210533</v>
+        <v>4.837362598277899</v>
       </c>
       <c r="E14">
-        <v>12.76630414654986</v>
+        <v>6.350515748979801</v>
       </c>
       <c r="F14">
-        <v>33.34663310156601</v>
+        <v>34.63127421441365</v>
       </c>
       <c r="G14">
-        <v>3.616750841943373</v>
+        <v>2.001571686912461</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.514656027423282</v>
+        <v>4.708742300757499</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.86860560352266</v>
+        <v>31.82036260676292</v>
       </c>
       <c r="N14">
-        <v>18.26081791851106</v>
+        <v>17.63779596060481</v>
       </c>
       <c r="O14">
-        <v>25.24010146887921</v>
+        <v>26.11978693252942</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.150388590166937</v>
+        <v>8.843748373441283</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.889818681580229</v>
+        <v>4.841852051653575</v>
       </c>
       <c r="E15">
-        <v>12.77304694812049</v>
+        <v>6.367251723126749</v>
       </c>
       <c r="F15">
-        <v>33.31813292779817</v>
+        <v>34.45636865971288</v>
       </c>
       <c r="G15">
-        <v>3.617076016299302</v>
+        <v>2.002560282403686</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.519002319928024</v>
+        <v>4.721598138287394</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.80444411899551</v>
+        <v>31.64738944081821</v>
       </c>
       <c r="N15">
-        <v>18.2490669960556</v>
+        <v>17.59201319445425</v>
       </c>
       <c r="O15">
-        <v>25.2182248243805</v>
+        <v>25.98839880694474</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.087882838751103</v>
+        <v>8.558866710350603</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.905624658178235</v>
+        <v>4.868358231442933</v>
       </c>
       <c r="E16">
-        <v>12.81229655820636</v>
+        <v>6.464711048136998</v>
       </c>
       <c r="F16">
-        <v>33.15731261190308</v>
+        <v>33.45038867046746</v>
       </c>
       <c r="G16">
-        <v>3.618968160679084</v>
+        <v>2.008246307555257</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.544273377806372</v>
+        <v>4.795862583971394</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.43341778599028</v>
+        <v>30.63928460692214</v>
       </c>
       <c r="N16">
-        <v>18.18226151173332</v>
+        <v>17.32878197122507</v>
       </c>
       <c r="O16">
-        <v>25.09464498359441</v>
+        <v>25.23250901883651</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.049733695389826</v>
+        <v>8.383480932608007</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.915578352038258</v>
+        <v>4.885296353511321</v>
       </c>
       <c r="E17">
-        <v>12.83691924135268</v>
+        <v>6.525842259326319</v>
       </c>
       <c r="F17">
-        <v>33.06092582128262</v>
+        <v>32.83000737141343</v>
       </c>
       <c r="G17">
-        <v>3.620154606745882</v>
+        <v>2.011754961776338</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.560101907783672</v>
+        <v>4.841949282151278</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.20292245570065</v>
+        <v>30.00569260703623</v>
       </c>
       <c r="N17">
-        <v>18.14176954127647</v>
+        <v>17.16658988237712</v>
       </c>
       <c r="O17">
-        <v>25.02045592167496</v>
+        <v>24.76617125834844</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.027870957161024</v>
+        <v>8.297436440383297</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.92139809378069</v>
+        <v>4.895280976647149</v>
       </c>
       <c r="E18">
-        <v>12.85128183081259</v>
+        <v>6.561481352860075</v>
       </c>
       <c r="F18">
-        <v>33.00633614456663</v>
+        <v>32.47200718232142</v>
       </c>
       <c r="G18">
-        <v>3.620846481420698</v>
+        <v>2.013781298292323</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.569325923302925</v>
+        <v>4.868650896944899</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.06932933876651</v>
+        <v>29.63565931790356</v>
       </c>
       <c r="N18">
-        <v>18.11866569897416</v>
+        <v>17.07306839596007</v>
       </c>
       <c r="O18">
-        <v>24.97839217462604</v>
+        <v>24.49699437503293</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.02048300675448</v>
+        <v>8.268149591306148</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.923384823005231</v>
+        <v>4.898702598565229</v>
       </c>
       <c r="E19">
-        <v>12.85617917677946</v>
+        <v>6.573628865264819</v>
       </c>
       <c r="F19">
-        <v>32.988000281829</v>
+        <v>32.35059559699396</v>
       </c>
       <c r="G19">
-        <v>3.621082365936921</v>
+        <v>2.014468865142637</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.572469624465739</v>
+        <v>4.877724882216493</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.02392613724794</v>
+        <v>29.50940560846901</v>
       </c>
       <c r="N19">
-        <v>18.11087562111241</v>
+        <v>17.04136630806885</v>
       </c>
       <c r="O19">
-        <v>24.9642555615469</v>
+        <v>24.4056940395067</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.053786665256872</v>
+        <v>8.399332426338686</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.914508971826377</v>
+        <v>4.883468041847518</v>
       </c>
       <c r="E20">
-        <v>12.83427739262034</v>
+        <v>6.519284929500666</v>
       </c>
       <c r="F20">
-        <v>33.07109877202829</v>
+        <v>32.89617002545697</v>
       </c>
       <c r="G20">
-        <v>3.620027328819245</v>
+        <v>2.011380621617689</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.558404533397177</v>
+        <v>4.837023218903972</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.22756541615401</v>
+        <v>30.07371908632875</v>
       </c>
       <c r="N20">
-        <v>18.14606084930414</v>
+        <v>17.18388024185096</v>
       </c>
       <c r="O20">
-        <v>25.02829081668965</v>
+        <v>24.81591259844638</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.166580817353216</v>
+        <v>8.915929433796293</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>8.885817331839615</v>
+        <v>4.835223819506551</v>
       </c>
       <c r="E21">
-        <v>12.76308156047631</v>
+        <v>6.342518479543245</v>
       </c>
       <c r="F21">
-        <v>33.36034343387343</v>
+        <v>34.71508120045757</v>
       </c>
       <c r="G21">
-        <v>3.616595418789633</v>
+        <v>2.00109796830805</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.51257829684922</v>
+        <v>4.702588087667196</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.89931227982074</v>
+        <v>31.90301109037384</v>
       </c>
       <c r="N21">
-        <v>18.26646205478932</v>
+        <v>17.65973376046817</v>
       </c>
       <c r="O21">
-        <v>25.2506230968352</v>
+        <v>26.18273877683795</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.240847049667297</v>
+        <v>9.239367047262371</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>8.867906219286539</v>
+        <v>4.805998924693196</v>
       </c>
       <c r="E22">
-        <v>12.71832938113725</v>
+        <v>6.231601286249997</v>
       </c>
       <c r="F22">
-        <v>33.55662562667731</v>
+        <v>35.89315799949078</v>
       </c>
       <c r="G22">
-        <v>3.614436173422911</v>
+        <v>1.994435022205328</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.483690850014341</v>
+        <v>4.616461890753244</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.32842420788545</v>
+        <v>33.04948658395855</v>
       </c>
       <c r="N22">
-        <v>18.34668807776555</v>
+        <v>17.96809318418625</v>
       </c>
       <c r="O22">
-        <v>25.4010976784792</v>
+        <v>27.14746658799386</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.201167284723942</v>
+        <v>9.068058867666632</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>8.877388914640278</v>
+        <v>4.821378167025495</v>
       </c>
       <c r="E23">
-        <v>12.74205197369525</v>
+        <v>6.290359009236876</v>
       </c>
       <c r="F23">
-        <v>33.4512192982494</v>
+        <v>35.26537155364309</v>
       </c>
       <c r="G23">
-        <v>3.615580970917289</v>
+        <v>1.99798674227784</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.499011618452878</v>
+        <v>4.662269443762074</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.10034491052511</v>
+        <v>32.44203706129402</v>
       </c>
       <c r="N23">
-        <v>18.30373518271591</v>
+        <v>17.80378324461103</v>
       </c>
       <c r="O23">
-        <v>25.32032594763097</v>
+        <v>26.59603601742028</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.051954098651519</v>
+        <v>8.39216890022298</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.91499213574275</v>
+        <v>4.884293854800774</v>
       </c>
       <c r="E24">
-        <v>12.83547112859143</v>
+        <v>6.522247963440218</v>
       </c>
       <c r="F24">
-        <v>33.06649700964625</v>
+        <v>32.86626204236333</v>
       </c>
       <c r="G24">
-        <v>3.620084840727941</v>
+        <v>2.011549832086028</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.559171530109516</v>
+        <v>4.839249651259378</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.21642768262278</v>
+        <v>30.0429823053526</v>
       </c>
       <c r="N24">
-        <v>18.1441202008676</v>
+        <v>17.17606412072904</v>
       </c>
       <c r="O24">
-        <v>25.0247468247318</v>
+        <v>24.79342787808762</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.894143449742988</v>
+        <v>7.748606146748914</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.95917306400753</v>
+        <v>4.96135481474262</v>
       </c>
       <c r="E25">
-        <v>12.9438990912984</v>
+        <v>6.790527096835961</v>
       </c>
       <c r="F25">
-        <v>32.68414801350109</v>
+        <v>30.23440382363093</v>
       </c>
       <c r="G25">
-        <v>3.625305100456666</v>
+        <v>2.026502834592087</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.628649418443038</v>
+        <v>5.037570432544751</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.22465932447412</v>
+        <v>27.24039071227075</v>
       </c>
       <c r="N25">
-        <v>17.97913044024589</v>
+        <v>16.49046499289165</v>
       </c>
       <c r="O25">
-        <v>24.72927997271959</v>
+        <v>22.81323229742939</v>
       </c>
     </row>
   </sheetData>
